--- a/06-08-2023/data/output/xlsx/sample_0/14_causality.xlsx
+++ b/06-08-2023/data/output/xlsx/sample_0/14_causality.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="148">
   <si>
     <t>name</t>
   </si>
@@ -334,25 +334,130 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_equals__1,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_equals__0,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_equals__0,num_of_equals__1,num_of_unknowns__10,num_of_unknowns__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,num_of_unknowns__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,num_of_unknowns__10</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__6,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__8,num_of_equals__9,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__9,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__7,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__6,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__6,num_of_unknowns__7</t>
   </si>
 </sst>
 </file>
@@ -750,19 +855,19 @@
         <v>968</v>
       </c>
       <c r="D2">
-        <v>7.229453571447539</v>
+        <v>0.1446904100687838</v>
       </c>
       <c r="E2" t="s">
         <v>106</v>
       </c>
       <c r="F2">
-        <v>11.06198347107438</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="G2">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H2">
-        <v>0.0609814670663642</v>
+        <v>0.001047549644744031</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -776,19 +881,19 @@
         <v>835</v>
       </c>
       <c r="D3">
-        <v>4.057166183651596</v>
+        <v>0.1433123907547093</v>
       </c>
       <c r="E3" t="s">
         <v>107</v>
       </c>
       <c r="F3">
-        <v>11.02994011976048</v>
+        <v>0.07425149700598803</v>
       </c>
       <c r="G3">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H3">
-        <v>0.02893811575246197</v>
+        <v>0.007117228468913883</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -801,17 +906,20 @@
       <c r="C4">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
-        <v>105</v>
+      <c r="D4">
+        <v>0.06806875470832074</v>
+      </c>
+      <c r="E4" t="s">
+        <v>108</v>
       </c>
       <c r="F4">
-        <v>5.727272727272728</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="G4">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H4">
-        <v>-5.273729276735289</v>
+        <v>0.1146839132811077</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -824,17 +932,20 @@
       <c r="C5">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
-        <v>105</v>
+      <c r="D5">
+        <v>0.08261333135275416</v>
+      </c>
+      <c r="E5" t="s">
+        <v>109</v>
       </c>
       <c r="F5">
-        <v>6.111111111111111</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="G5">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H5">
-        <v>-4.889890892896906</v>
+        <v>0.1550879536851481</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -847,17 +958,20 @@
       <c r="C6">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
-        <v>105</v>
+      <c r="D6">
+        <v>0.08261333135275416</v>
+      </c>
+      <c r="E6" t="s">
+        <v>110</v>
       </c>
       <c r="F6">
-        <v>6.111111111111111</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="G6">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H6">
-        <v>-4.889890892896906</v>
+        <v>0.1550879536851481</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -870,17 +984,20 @@
       <c r="C7">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
-        <v>105</v>
+      <c r="D7">
+        <v>0.1552085090568127</v>
+      </c>
+      <c r="E7" t="s">
+        <v>111</v>
       </c>
       <c r="F7">
-        <v>5.666666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H7">
-        <v>-5.33433533734135</v>
+        <v>0.2661990647962592</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -893,17 +1010,20 @@
       <c r="C8">
         <v>5</v>
       </c>
-      <c r="D8" t="s">
-        <v>105</v>
+      <c r="D8">
+        <v>0.1977983463859727</v>
+      </c>
+      <c r="E8" t="s">
+        <v>112</v>
       </c>
       <c r="F8">
-        <v>6.6</v>
+        <v>0.4</v>
       </c>
       <c r="G8">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H8">
-        <v>-4.401002004008017</v>
+        <v>0.3328657314629259</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -916,17 +1036,20 @@
       <c r="C9">
         <v>4</v>
       </c>
-      <c r="D9" t="s">
-        <v>105</v>
+      <c r="D9">
+        <v>0.06268661831178513</v>
+      </c>
+      <c r="E9" t="s">
+        <v>113</v>
       </c>
       <c r="F9">
-        <v>4.75</v>
+        <v>0.25</v>
       </c>
       <c r="G9">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H9">
-        <v>-6.251002004008017</v>
+        <v>0.1828657314629258</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -939,17 +1062,20 @@
       <c r="C10">
         <v>3</v>
       </c>
-      <c r="D10" t="s">
-        <v>105</v>
+      <c r="D10">
+        <v>0.1466207210082733</v>
+      </c>
+      <c r="E10" t="s">
+        <v>114</v>
       </c>
       <c r="F10">
-        <v>5.333333333333333</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H10">
-        <v>-5.667668670674684</v>
+        <v>0.2661990647962592</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -962,17 +1088,20 @@
       <c r="C11">
         <v>2</v>
       </c>
-      <c r="D11" t="s">
-        <v>105</v>
+      <c r="D11">
+        <v>0.2532751791828273</v>
+      </c>
+      <c r="E11" t="s">
+        <v>115</v>
       </c>
       <c r="F11">
-        <v>7.5</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H11">
-        <v>-3.501002004008017</v>
+        <v>0.4328657314629258</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -985,17 +1114,20 @@
       <c r="C12">
         <v>427</v>
       </c>
-      <c r="D12" t="s">
-        <v>105</v>
+      <c r="D12">
+        <v>0.1323168354274916</v>
+      </c>
+      <c r="E12" t="s">
+        <v>116</v>
       </c>
       <c r="F12">
-        <v>10.74004683840749</v>
+        <v>0.07025761124121779</v>
       </c>
       <c r="G12">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H12">
-        <v>-0.2609551656005227</v>
+        <v>0.003123342704143647</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1008,17 +1140,20 @@
       <c r="C13">
         <v>295</v>
       </c>
-      <c r="D13" t="s">
-        <v>105</v>
+      <c r="D13">
+        <v>0.1259573685132001</v>
+      </c>
+      <c r="E13" t="s">
+        <v>117</v>
       </c>
       <c r="F13">
-        <v>10.24745762711864</v>
+        <v>0.06779661016949153</v>
       </c>
       <c r="G13">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H13">
-        <v>-0.7535443768893728</v>
+        <v>0.0006623416324173792</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1031,17 +1166,20 @@
       <c r="C14">
         <v>175</v>
       </c>
-      <c r="D14" t="s">
-        <v>105</v>
+      <c r="D14">
+        <v>0.1226518241544929</v>
+      </c>
+      <c r="E14" t="s">
+        <v>118</v>
       </c>
       <c r="F14">
-        <v>9.800000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="G14">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H14">
-        <v>-1.201002004008016</v>
+        <v>0.01286573146292586</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1054,17 +1192,20 @@
       <c r="C15">
         <v>130</v>
       </c>
-      <c r="D15" t="s">
-        <v>105</v>
+      <c r="D15">
+        <v>0.1263410091026987</v>
+      </c>
+      <c r="E15" t="s">
+        <v>119</v>
       </c>
       <c r="F15">
-        <v>9.699999999999999</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="G15">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H15">
-        <v>-1.301002004008017</v>
+        <v>0.02517342377061817</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1077,17 +1218,20 @@
       <c r="C16">
         <v>78</v>
       </c>
-      <c r="D16" t="s">
-        <v>105</v>
+      <c r="D16">
+        <v>0.05738691658507201</v>
+      </c>
+      <c r="E16" t="s">
+        <v>120</v>
       </c>
       <c r="F16">
-        <v>9.858974358974359</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="G16">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H16">
-        <v>-1.142027645033657</v>
+        <v>0.03542983402702841</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1104,13 +1248,13 @@
         <v>105</v>
       </c>
       <c r="F17">
-        <v>8.73076923076923</v>
+        <v>0.0576923076923077</v>
       </c>
       <c r="G17">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H17">
-        <v>-2.270232773238787</v>
+        <v>-0.00944196084476645</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1123,17 +1267,20 @@
       <c r="C18">
         <v>26</v>
       </c>
-      <c r="D18" t="s">
-        <v>105</v>
+      <c r="D18">
+        <v>0.01059381770505124</v>
+      </c>
+      <c r="E18" t="s">
+        <v>121</v>
       </c>
       <c r="F18">
-        <v>7.038461538461538</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="G18">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H18">
-        <v>-3.962540465546478</v>
+        <v>0.009788808386002781</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1146,17 +1293,20 @@
       <c r="C19">
         <v>17</v>
       </c>
-      <c r="D19" t="s">
-        <v>105</v>
+      <c r="D19">
+        <v>0.03243182823749249</v>
+      </c>
+      <c r="E19" t="s">
+        <v>122</v>
       </c>
       <c r="F19">
-        <v>6.176470588235294</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="G19">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H19">
-        <v>-4.824531415772722</v>
+        <v>0.05051279028645526</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1169,17 +1319,20 @@
       <c r="C20">
         <v>650</v>
       </c>
-      <c r="D20" t="s">
-        <v>105</v>
+      <c r="D20">
+        <v>0.1392812050461674</v>
+      </c>
+      <c r="E20" t="s">
+        <v>123</v>
       </c>
       <c r="F20">
-        <v>9.813846153846153</v>
+        <v>0.07846153846153846</v>
       </c>
       <c r="G20">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H20">
-        <v>-1.187155850161863</v>
+        <v>0.01132726992446431</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1192,17 +1345,20 @@
       <c r="C21">
         <v>522</v>
       </c>
-      <c r="D21" t="s">
-        <v>105</v>
+      <c r="D21">
+        <v>0.07149667708004005</v>
+      </c>
+      <c r="E21" t="s">
+        <v>124</v>
       </c>
       <c r="F21">
-        <v>9.298850574712644</v>
+        <v>0.09003831417624521</v>
       </c>
       <c r="G21">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H21">
-        <v>-1.702151429295373</v>
+        <v>0.02290404563917106</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1215,17 +1371,20 @@
       <c r="C22">
         <v>36</v>
       </c>
-      <c r="D22" t="s">
-        <v>105</v>
+      <c r="D22">
+        <v>-0.04454361835139577</v>
+      </c>
+      <c r="E22" t="s">
+        <v>125</v>
       </c>
       <c r="F22">
-        <v>8.722222222222221</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G22">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H22">
-        <v>-2.278779781785795</v>
+        <v>0.09953239812959251</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1238,17 +1397,20 @@
       <c r="C23">
         <v>27</v>
       </c>
-      <c r="D23" t="s">
-        <v>105</v>
+      <c r="D23">
+        <v>-0.06344128694253517</v>
+      </c>
+      <c r="E23" t="s">
+        <v>126</v>
       </c>
       <c r="F23">
-        <v>9.555555555555555</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="G23">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H23">
-        <v>-1.445446448452461</v>
+        <v>0.08101387961107399</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1265,13 +1427,13 @@
         <v>105</v>
       </c>
       <c r="F24">
-        <v>7.75</v>
+        <v>0.0625</v>
       </c>
       <c r="G24">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H24">
-        <v>-3.251002004008017</v>
+        <v>-0.004634268537074146</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1284,17 +1446,20 @@
       <c r="C25">
         <v>12</v>
       </c>
-      <c r="D25" t="s">
-        <v>105</v>
+      <c r="D25">
+        <v>-0.1099555773330748</v>
+      </c>
+      <c r="E25" t="s">
+        <v>127</v>
       </c>
       <c r="F25">
-        <v>6.25</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="G25">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H25">
-        <v>-4.751002004008017</v>
+        <v>0.01619906479625918</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1307,17 +1472,20 @@
       <c r="C26">
         <v>9</v>
       </c>
-      <c r="D26" t="s">
-        <v>105</v>
+      <c r="D26">
+        <v>-0.09342061122325504</v>
+      </c>
+      <c r="E26" t="s">
+        <v>128</v>
       </c>
       <c r="F26">
-        <v>6.777777777777778</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G26">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H26">
-        <v>-4.223224226230239</v>
+        <v>0.04397684257403696</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1330,17 +1498,20 @@
       <c r="C27">
         <v>8</v>
       </c>
-      <c r="D27" t="s">
-        <v>105</v>
+      <c r="D27">
+        <v>-0.07967221648512642</v>
+      </c>
+      <c r="E27" t="s">
+        <v>129</v>
       </c>
       <c r="F27">
-        <v>7.5</v>
+        <v>0.125</v>
       </c>
       <c r="G27">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H27">
-        <v>-3.501002004008017</v>
+        <v>0.05786573146292585</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1353,17 +1524,20 @@
       <c r="C28">
         <v>4</v>
       </c>
-      <c r="D28" t="s">
-        <v>105</v>
+      <c r="D28">
+        <v>0.008830005937219837</v>
+      </c>
+      <c r="E28" t="s">
+        <v>130</v>
       </c>
       <c r="F28">
-        <v>5.5</v>
+        <v>0.25</v>
       </c>
       <c r="G28">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H28">
-        <v>-5.501002004008017</v>
+        <v>0.1828657314629258</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1380,13 +1554,13 @@
         <v>105</v>
       </c>
       <c r="F29">
-        <v>2.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H29">
-        <v>-8.334335337341351</v>
+        <v>-0.06713426853707415</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1403,13 +1577,13 @@
         <v>105</v>
       </c>
       <c r="F30">
-        <v>2.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H30">
-        <v>-8.334335337341351</v>
+        <v>-0.06713426853707415</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1426,13 +1600,13 @@
         <v>105</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H31">
-        <v>-10.00100200400802</v>
+        <v>-0.06713426853707415</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1445,17 +1619,20 @@
       <c r="C32">
         <v>411</v>
       </c>
-      <c r="D32" t="s">
-        <v>105</v>
+      <c r="D32">
+        <v>0.08966295500565136</v>
+      </c>
+      <c r="E32" t="s">
+        <v>131</v>
       </c>
       <c r="F32">
-        <v>9.299270072992702</v>
+        <v>0.09732360097323602</v>
       </c>
       <c r="G32">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H32">
-        <v>-1.701731931015315</v>
+        <v>0.03018933243616187</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1472,13 +1649,13 @@
         <v>105</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H33">
-        <v>-10.00100200400802</v>
+        <v>-0.06713426853707415</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1495,13 +1672,13 @@
         <v>105</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H34">
-        <v>-10.00100200400802</v>
+        <v>-0.06713426853707415</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1514,17 +1691,20 @@
       <c r="C35">
         <v>303</v>
       </c>
-      <c r="D35" t="s">
-        <v>105</v>
+      <c r="D35">
+        <v>0.09691436442962181</v>
+      </c>
+      <c r="E35" t="s">
+        <v>132</v>
       </c>
       <c r="F35">
-        <v>8.508250825082508</v>
+        <v>0.1089108910891089</v>
       </c>
       <c r="G35">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H35">
-        <v>-2.492751178925509</v>
+        <v>0.04177662255203476</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1537,17 +1717,20 @@
       <c r="C36">
         <v>207</v>
       </c>
-      <c r="D36" t="s">
-        <v>105</v>
+      <c r="D36">
+        <v>0.05339680825542924</v>
+      </c>
+      <c r="E36" t="s">
+        <v>133</v>
       </c>
       <c r="F36">
-        <v>8.42512077294686</v>
+        <v>0.09178743961352658</v>
       </c>
       <c r="G36">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H36">
-        <v>-2.575881231061157</v>
+        <v>0.02465317107645243</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1560,17 +1743,20 @@
       <c r="C37">
         <v>163</v>
       </c>
-      <c r="D37" t="s">
-        <v>105</v>
+      <c r="D37">
+        <v>-0.1102126937618187</v>
+      </c>
+      <c r="E37" t="s">
+        <v>134</v>
       </c>
       <c r="F37">
-        <v>8.742331288343559</v>
+        <v>0.08588957055214724</v>
       </c>
       <c r="G37">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H37">
-        <v>-2.258670715664458</v>
+        <v>0.0187553020150731</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1583,17 +1769,20 @@
       <c r="C38">
         <v>112</v>
       </c>
-      <c r="D38" t="s">
-        <v>105</v>
+      <c r="D38">
+        <v>-0.08998946176991507</v>
+      </c>
+      <c r="E38" t="s">
+        <v>135</v>
       </c>
       <c r="F38">
-        <v>8.535714285714286</v>
+        <v>0.1160714285714286</v>
       </c>
       <c r="G38">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H38">
-        <v>-2.46528771829373</v>
+        <v>0.04893716003435443</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1606,17 +1795,20 @@
       <c r="C39">
         <v>89</v>
       </c>
-      <c r="D39" t="s">
-        <v>105</v>
+      <c r="D39">
+        <v>-0.08133570846850662</v>
+      </c>
+      <c r="E39" t="s">
+        <v>136</v>
       </c>
       <c r="F39">
-        <v>8.51685393258427</v>
+        <v>0.1235955056179775</v>
       </c>
       <c r="G39">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H39">
-        <v>-2.484148071423746</v>
+        <v>0.05646123708090338</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1629,17 +1821,20 @@
       <c r="C40">
         <v>59</v>
       </c>
-      <c r="D40" t="s">
-        <v>105</v>
+      <c r="D40">
+        <v>-0.07890717746976207</v>
+      </c>
+      <c r="E40" t="s">
+        <v>137</v>
       </c>
       <c r="F40">
-        <v>7.915254237288136</v>
+        <v>0.1186440677966102</v>
       </c>
       <c r="G40">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H40">
-        <v>-3.085747766719881</v>
+        <v>0.05150979925953603</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1652,17 +1847,20 @@
       <c r="C41">
         <v>45</v>
       </c>
-      <c r="D41" t="s">
-        <v>105</v>
+      <c r="D41">
+        <v>-0.04533731455388314</v>
+      </c>
+      <c r="E41" t="s">
+        <v>138</v>
       </c>
       <c r="F41">
-        <v>7.911111111111111</v>
+        <v>0.1555555555555556</v>
       </c>
       <c r="G41">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H41">
-        <v>-3.089890892896905</v>
+        <v>0.08842128701848141</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1676,19 +1874,19 @@
         <v>996</v>
       </c>
       <c r="D42">
-        <v>10.86093110930142</v>
+        <v>0.1459874224508447</v>
       </c>
       <c r="E42" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="F42">
-        <v>11.01907630522088</v>
+        <v>0.06726907630522089</v>
       </c>
       <c r="G42">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H42">
-        <v>0.01807430121286657</v>
+        <v>0.0001348077681467413</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1702,19 +1900,19 @@
         <v>991</v>
       </c>
       <c r="D43">
-        <v>5.415386801013085</v>
+        <v>0.1460230413196783</v>
       </c>
       <c r="E43" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F43">
-        <v>11.029263370333</v>
+        <v>0.06760847628657922</v>
       </c>
       <c r="G43">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H43">
-        <v>0.02826136632497978</v>
+        <v>0.0004742077495050734</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1727,17 +1925,20 @@
       <c r="C44">
         <v>12</v>
       </c>
-      <c r="D44" t="s">
-        <v>105</v>
+      <c r="D44">
+        <v>-0.05847357565787983</v>
+      </c>
+      <c r="E44" t="s">
+        <v>141</v>
       </c>
       <c r="F44">
-        <v>5.583333333333333</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="G44">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H44">
-        <v>-5.417668670674684</v>
+        <v>0.01619906479625918</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1754,13 +1955,13 @@
         <v>105</v>
       </c>
       <c r="F45">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H45">
-        <v>-8.501002004008017</v>
+        <v>-0.06713426853707415</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1777,13 +1978,13 @@
         <v>105</v>
       </c>
       <c r="F46">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H46">
-        <v>-7.001002004008017</v>
+        <v>-0.06713426853707415</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1800,13 +2001,13 @@
         <v>105</v>
       </c>
       <c r="F47">
-        <v>10.70878274268105</v>
+        <v>0.06317411402157165</v>
       </c>
       <c r="G47">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H47">
-        <v>-0.2922192613269683</v>
+        <v>-0.003960154515502495</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1823,13 +2024,13 @@
         <v>105</v>
       </c>
       <c r="F48">
-        <v>10.6021052631579</v>
+        <v>0.06526315789473684</v>
       </c>
       <c r="G48">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H48">
-        <v>-0.3988967408501214</v>
+        <v>-0.001871110642337304</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1846,13 +2047,13 @@
         <v>105</v>
       </c>
       <c r="F49">
-        <v>10.74918566775244</v>
+        <v>0.05863192182410423</v>
       </c>
       <c r="G49">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H49">
-        <v>-0.2518163362555743</v>
+        <v>-0.008502346712969913</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1869,13 +2070,13 @@
         <v>105</v>
       </c>
       <c r="F50">
-        <v>10.54077253218884</v>
+        <v>0.06437768240343347</v>
       </c>
       <c r="G50">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H50">
-        <v>-0.4602294718191757</v>
+        <v>-0.002756586133640673</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1892,13 +2093,13 @@
         <v>105</v>
       </c>
       <c r="F51">
-        <v>10.14935064935065</v>
+        <v>0.05844155844155844</v>
       </c>
       <c r="G51">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H51">
-        <v>-0.851651354657367</v>
+        <v>-0.008692710095515706</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1911,17 +2112,20 @@
       <c r="C52">
         <v>101</v>
       </c>
-      <c r="D52" t="s">
-        <v>105</v>
+      <c r="D52">
+        <v>0.1002215754252989</v>
+      </c>
+      <c r="E52" t="s">
+        <v>142</v>
       </c>
       <c r="F52">
-        <v>10.26732673267327</v>
+        <v>0.07920792079207921</v>
       </c>
       <c r="G52">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H52">
-        <v>-0.7336752713347501</v>
+        <v>0.01207365225500506</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1934,17 +2138,20 @@
       <c r="C53">
         <v>62</v>
       </c>
-      <c r="D53" t="s">
-        <v>105</v>
+      <c r="D53">
+        <v>0.03259079684262435</v>
+      </c>
+      <c r="E53" t="s">
+        <v>143</v>
       </c>
       <c r="F53">
-        <v>10.03225806451613</v>
+        <v>0.08064516129032258</v>
       </c>
       <c r="G53">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H53">
-        <v>-0.9687439394918869</v>
+        <v>0.01351089275324843</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1957,17 +2164,20 @@
       <c r="C54">
         <v>30</v>
       </c>
-      <c r="D54" t="s">
-        <v>105</v>
+      <c r="D54">
+        <v>0.05123890970021784</v>
+      </c>
+      <c r="E54" t="s">
+        <v>144</v>
       </c>
       <c r="F54">
-        <v>8.1</v>
+        <v>0.1</v>
       </c>
       <c r="G54">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H54">
-        <v>-2.901002004008017</v>
+        <v>0.03286573146292586</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1984,13 +2194,13 @@
         <v>105</v>
       </c>
       <c r="F55">
-        <v>7.791666666666667</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="G55">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H55">
-        <v>-3.20933533734135</v>
+        <v>-0.02546760187040748</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2007,13 +2217,13 @@
         <v>105</v>
       </c>
       <c r="F56">
-        <v>7.730994152046784</v>
+        <v>0.03508771929824561</v>
       </c>
       <c r="G56">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H56">
-        <v>-3.270007851961233</v>
+        <v>-0.03204654923882853</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2030,13 +2240,13 @@
         <v>105</v>
       </c>
       <c r="F57">
-        <v>4.888888888888889</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H57">
-        <v>-6.112113115119127</v>
+        <v>-0.06713426853707415</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2053,13 +2263,13 @@
         <v>105</v>
       </c>
       <c r="F58">
-        <v>5.375</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H58">
-        <v>-5.626002004008017</v>
+        <v>-0.06713426853707415</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2076,13 +2286,13 @@
         <v>105</v>
       </c>
       <c r="F59">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H59">
-        <v>-4.501002004008017</v>
+        <v>-0.06713426853707415</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2099,13 +2309,13 @@
         <v>105</v>
       </c>
       <c r="F60">
-        <v>6.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H60">
-        <v>-4.667668670674684</v>
+        <v>-0.06713426853707415</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2122,13 +2332,13 @@
         <v>105</v>
       </c>
       <c r="F61">
-        <v>6.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H61">
-        <v>-4.667668670674684</v>
+        <v>-0.06713426853707415</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2145,13 +2355,13 @@
         <v>105</v>
       </c>
       <c r="F62">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H62">
-        <v>-6.001002004008017</v>
+        <v>-0.06713426853707415</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2168,13 +2378,13 @@
         <v>105</v>
       </c>
       <c r="F63">
-        <v>7.445454545454545</v>
+        <v>0.03636363636363636</v>
       </c>
       <c r="G63">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H63">
-        <v>-3.555547458553471</v>
+        <v>-0.03077063217343778</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2191,13 +2401,13 @@
         <v>105</v>
       </c>
       <c r="F64">
-        <v>7.709677419354839</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="G64">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H64">
-        <v>-3.291324584653178</v>
+        <v>-0.03487620402094511</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2214,13 +2424,13 @@
         <v>105</v>
       </c>
       <c r="F65">
-        <v>7.27536231884058</v>
+        <v>0</v>
       </c>
       <c r="G65">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H65">
-        <v>-3.725639685167437</v>
+        <v>-0.06713426853707415</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2237,13 +2447,13 @@
         <v>105</v>
       </c>
       <c r="F66">
-        <v>7.150943396226415</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H66">
-        <v>-3.850058607781602</v>
+        <v>-0.06713426853707415</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2260,13 +2470,13 @@
         <v>105</v>
       </c>
       <c r="F67">
-        <v>7.28125</v>
+        <v>0</v>
       </c>
       <c r="G67">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H67">
-        <v>-3.719752004008017</v>
+        <v>-0.06713426853707415</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2283,13 +2493,13 @@
         <v>105</v>
       </c>
       <c r="F68">
-        <v>5.96</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H68">
-        <v>-5.041002004008017</v>
+        <v>-0.06713426853707415</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2306,13 +2516,13 @@
         <v>105</v>
       </c>
       <c r="F69">
-        <v>5.823529411764706</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H69">
-        <v>-5.177472592243311</v>
+        <v>-0.06713426853707415</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2329,13 +2539,13 @@
         <v>105</v>
       </c>
       <c r="F70">
-        <v>5.545454545454546</v>
+        <v>0</v>
       </c>
       <c r="G70">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H70">
-        <v>-5.455547458553471</v>
+        <v>-0.06713426853707415</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2352,10 +2562,10 @@
         <v>105</v>
       </c>
       <c r="F71">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="G71">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -2371,20 +2581,17 @@
       <c r="C72">
         <v>708</v>
       </c>
-      <c r="D72">
-        <v>4.036060392289436</v>
-      </c>
-      <c r="E72" t="s">
-        <v>110</v>
+      <c r="D72" t="s">
+        <v>105</v>
       </c>
       <c r="F72">
-        <v>11.00847457627119</v>
+        <v>0.06638418079096045</v>
       </c>
       <c r="G72">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H72">
-        <v>0.007472572263170107</v>
+        <v>-0.0007500877461136951</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2397,20 +2604,17 @@
       <c r="C73">
         <v>1</v>
       </c>
-      <c r="D73">
-        <v>2.809460693602245</v>
-      </c>
-      <c r="E73" t="s">
-        <v>111</v>
+      <c r="D73" t="s">
+        <v>105</v>
       </c>
       <c r="F73">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G73">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H73">
-        <v>0.9989979959919832</v>
+        <v>-0.06713426853707415</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2427,13 +2631,13 @@
         <v>105</v>
       </c>
       <c r="F74">
-        <v>8.314049586776859</v>
+        <v>0.04132231404958678</v>
       </c>
       <c r="G74">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H74">
-        <v>-2.686952417231158</v>
+        <v>-0.02581195448748737</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2450,13 +2654,13 @@
         <v>105</v>
       </c>
       <c r="F75">
-        <v>7.555555555555555</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="G75">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H75">
-        <v>-3.445446448452461</v>
+        <v>-0.03009723150003711</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2473,13 +2677,13 @@
         <v>105</v>
       </c>
       <c r="F76">
-        <v>7.419354838709677</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="G76">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H76">
-        <v>-3.58164716529834</v>
+        <v>-0.002618139504816083</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2496,13 +2700,13 @@
         <v>105</v>
       </c>
       <c r="F77">
-        <v>6.095238095238095</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="G77">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H77">
-        <v>-4.905763908769922</v>
+        <v>-0.01951522091802653</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2515,17 +2719,20 @@
       <c r="C78">
         <v>11</v>
       </c>
-      <c r="D78" t="s">
-        <v>105</v>
+      <c r="D78">
+        <v>-0.03997489226223037</v>
+      </c>
+      <c r="E78" t="s">
+        <v>145</v>
       </c>
       <c r="F78">
-        <v>6.363636363636363</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="G78">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H78">
-        <v>-4.637365640371653</v>
+        <v>0.02377482237201677</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2538,17 +2745,20 @@
       <c r="C79">
         <v>4</v>
       </c>
-      <c r="D79" t="s">
-        <v>105</v>
+      <c r="D79">
+        <v>0.03419590303186913</v>
+      </c>
+      <c r="E79" t="s">
+        <v>146</v>
       </c>
       <c r="F79">
-        <v>7</v>
+        <v>0.25</v>
       </c>
       <c r="G79">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H79">
-        <v>-4.001002004008017</v>
+        <v>0.1828657314629258</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2565,13 +2775,13 @@
         <v>105</v>
       </c>
       <c r="F80">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="G80">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H80">
-        <v>-4.501002004008017</v>
+        <v>-0.06713426853707415</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2584,20 +2794,17 @@
       <c r="C81">
         <v>1</v>
       </c>
-      <c r="D81">
-        <v>2.809460693602245</v>
-      </c>
-      <c r="E81" t="s">
-        <v>112</v>
+      <c r="D81" t="s">
+        <v>105</v>
       </c>
       <c r="F81">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G81">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H81">
-        <v>0.9989979959919832</v>
+        <v>-0.06713426853707415</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2614,13 +2821,13 @@
         <v>105</v>
       </c>
       <c r="F82">
-        <v>10.30853391684902</v>
+        <v>0.06345733041575492</v>
       </c>
       <c r="G82">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H82">
-        <v>-0.6924680871590017</v>
+        <v>-0.003676938121319223</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2633,17 +2840,20 @@
       <c r="C83">
         <v>180</v>
       </c>
-      <c r="D83" t="s">
-        <v>105</v>
+      <c r="D83">
+        <v>0.1034090002197817</v>
+      </c>
+      <c r="E83" t="s">
+        <v>147</v>
       </c>
       <c r="F83">
-        <v>8.838888888888889</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="G83">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H83">
-        <v>-2.162113115119128</v>
+        <v>0.02175462035181475</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2660,13 +2870,13 @@
         <v>105</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G84">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H84">
-        <v>-10.00100200400802</v>
+        <v>-0.06713426853707415</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2683,13 +2893,13 @@
         <v>105</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G85">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H85">
-        <v>-10.00100200400802</v>
+        <v>-0.06713426853707415</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2706,13 +2916,13 @@
         <v>105</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H86">
-        <v>-10.00100200400802</v>
+        <v>-0.06713426853707415</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2729,13 +2939,13 @@
         <v>105</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G87">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H87">
-        <v>-10.00100200400802</v>
+        <v>-0.06713426853707415</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2752,13 +2962,13 @@
         <v>105</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G88">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H88">
-        <v>-10.00100200400802</v>
+        <v>-0.06713426853707415</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2775,13 +2985,13 @@
         <v>105</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H89">
-        <v>-10.00100200400802</v>
+        <v>-0.06713426853707415</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2798,13 +3008,13 @@
         <v>105</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G90">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H90">
-        <v>-10.00100200400802</v>
+        <v>-0.06713426853707415</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2821,13 +3031,13 @@
         <v>105</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H91">
-        <v>-10.00100200400802</v>
+        <v>-0.06713426853707415</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2844,13 +3054,13 @@
         <v>105</v>
       </c>
       <c r="F92">
-        <v>8.329787234042554</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="G92">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H92">
-        <v>-2.671214769965463</v>
+        <v>-0.003304481303031598</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2867,13 +3077,13 @@
         <v>105</v>
       </c>
       <c r="F93">
-        <v>7.581818181818182</v>
+        <v>0.05454545454545454</v>
       </c>
       <c r="G93">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H93">
-        <v>-3.419183822189835</v>
+        <v>-0.0125888139916196</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2890,13 +3100,13 @@
         <v>105</v>
       </c>
       <c r="F94">
-        <v>7.4</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="G94">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H94">
-        <v>-3.601002004008016</v>
+        <v>-0.03380093520374081</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2913,13 +3123,13 @@
         <v>105</v>
       </c>
       <c r="F95">
-        <v>6.142857142857143</v>
+        <v>0</v>
       </c>
       <c r="G95">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H95">
-        <v>-4.858144861150874</v>
+        <v>-0.06713426853707415</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2936,13 +3146,13 @@
         <v>105</v>
       </c>
       <c r="F96">
-        <v>2.714285714285714</v>
+        <v>0</v>
       </c>
       <c r="G96">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H96">
-        <v>-8.286716289722303</v>
+        <v>-0.06713426853707415</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2959,13 +3169,13 @@
         <v>105</v>
       </c>
       <c r="F97">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="G97">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H97">
-        <v>-7.601002004008016</v>
+        <v>-0.06713426853707415</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2982,13 +3192,13 @@
         <v>105</v>
       </c>
       <c r="F98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G98">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H98">
-        <v>-9.001002004008017</v>
+        <v>-0.06713426853707415</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3005,13 +3215,13 @@
         <v>105</v>
       </c>
       <c r="F99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G99">
-        <v>11.00100200400802</v>
+        <v>0.06713426853707415</v>
       </c>
       <c r="H99">
-        <v>-10.00100200400802</v>
+        <v>-0.06713426853707415</v>
       </c>
     </row>
   </sheetData>
